--- a/aves/ocorrencias/Aves_aquaticas_araguaia.xlsx
+++ b/aves/ocorrencias/Aves_aquaticas_araguaia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUSK46CB\OneDrive\2022_Blueprint Araguaia_Jacarandá\Dados\Aves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Taise\mapasAraguaia\aves\ocorrencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{C9D68B74-65EF-4967-85FC-A0C07C909ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE6D7B43-41FD-40B3-9761-9160BDCB1A98}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73285E10-4698-430E-BDEC-91CC1E9AC4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8D97992-BDEB-478D-8FD4-85B0EC45AC42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8D97992-BDEB-478D-8FD4-85B0EC45AC42}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>species_se</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>Sarkidiornis sylvicola</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>semi</t>
+  </si>
+  <si>
+    <t>aquatica</t>
   </si>
 </sst>
 </file>
@@ -151,15 +160,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -188,9 +201,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" connectionId="3" xr16:uid="{109F777A-2793-42ED-836E-A22515E46982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="16">
-    <queryTableFields count="1">
+  <queryTableRefresh nextId="17" unboundColumnsRight="1">
+    <queryTableFields count="2">
       <queryTableField id="3" name="species_se" tableColumnId="3"/>
+      <queryTableField id="16" dataBound="0" tableColumnId="1"/>
     </queryTableFields>
     <queryTableDeletedFields count="13">
       <deletedField name="name"/>
@@ -212,9 +226,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DEEB98AE-7F67-4D5A-893C-ACD7E71A5C5B}" name="Aves_Araguaia34" displayName="Aves_Araguaia34" ref="A1:A20" tableType="queryTable" totalsRowShown="0">
-  <tableColumns count="1">
-    <tableColumn id="3" xr3:uid="{E211AA31-2B9E-4711-A7F3-FD83216EEE86}" uniqueName="3" name="species_se" queryTableFieldId="3" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DEEB98AE-7F67-4D5A-893C-ACD7E71A5C5B}" name="Aves_Araguaia34" displayName="Aves_Araguaia34" ref="A1:B20" tableType="queryTable" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="3" xr3:uid="{E211AA31-2B9E-4711-A7F3-FD83216EEE86}" uniqueName="3" name="species_se" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F7D61938-B57A-4A3B-8DD7-120075D36AC4}" uniqueName="1" name="tipo" queryTableFieldId="16" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -517,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEB7818-B93C-4DC0-92BA-7ADF8C2CBBA8}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,109 +543,169 @@
     <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A17 A6 A1:A4 A8:A13 A19:A20">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="27"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
